--- a/Properties of Air.xlsx
+++ b/Properties of Air.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6ad723a0bd63bbe4/School/UW Bothell/2020-2021/Capstone/Microturbine Git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{84E95AB5-4D76-462A-B2B4-7DEF6CD8F29B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0DCC7651-4A40-4767-8D79-C6B5AB95783A}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{84E95AB5-4D76-462A-B2B4-7DEF6CD8F29B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BABB405F-0210-4091-8D36-E2E639F2974E}"/>
   <bookViews>
-    <workbookView xWindow="44880" yWindow="-3795" windowWidth="29040" windowHeight="15840" xr2:uid="{52DAC4DC-AF21-4D5E-A4BE-D87048A6DFFC}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{52DAC4DC-AF21-4D5E-A4BE-D87048A6DFFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Temp_K</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>Enthalpy_kJ_kmol</t>
+  </si>
+  <si>
+    <t>S_deg_kJ_kgK</t>
   </si>
 </sst>
 </file>
@@ -84,17 +87,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -425,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2E4A01-40C1-457E-9F55-7B0AF2CECAF0}">
-  <dimension ref="A1:C122"/>
+  <dimension ref="A1:D122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -438,7 +431,7 @@
     <col min="3" max="3" width="21.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -448,8 +441,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>200</v>
       </c>
@@ -460,8 +456,11 @@
         <f>B2*28.97</f>
         <v>5793.1309000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D2">
+        <v>1.29559</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>210</v>
       </c>
@@ -472,8 +471,11 @@
         <f t="shared" ref="C3:C66" si="0">B3*28.97</f>
         <v>6082.8308999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D3">
+        <v>1.3444400000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>220</v>
       </c>
@@ -484,8 +486,11 @@
         <f t="shared" si="0"/>
         <v>6372.5308999999997</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D4">
+        <v>1.3910499999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>230</v>
       </c>
@@ -496,8 +501,11 @@
         <f t="shared" si="0"/>
         <v>6663.6794</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D5">
+        <v>1.43557</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>240</v>
       </c>
@@ -508,8 +516,11 @@
         <f t="shared" si="0"/>
         <v>6953.3793999999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D6">
+        <v>1.47824</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>250</v>
       </c>
@@ -520,8 +531,11 @@
         <f t="shared" si="0"/>
         <v>7243.9485000000004</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D7">
+        <v>1.5191699999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>260</v>
       </c>
@@ -532,8 +546,11 @@
         <f t="shared" si="0"/>
         <v>7534.8072999999986</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D8">
+        <v>1.5584800000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>270</v>
       </c>
@@ -544,8 +561,11 @@
         <f t="shared" si="0"/>
         <v>7825.0866999999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D9">
+        <v>1.5963400000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>280</v>
       </c>
@@ -556,8 +576,11 @@
         <f t="shared" si="0"/>
         <v>8115.3660999999993</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D10">
+        <v>1.63279</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>285</v>
       </c>
@@ -568,8 +591,11 @@
         <f t="shared" si="0"/>
         <v>8260.505799999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D11">
+        <v>1.65055</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>290</v>
       </c>
@@ -580,8 +606,11 @@
         <f t="shared" si="0"/>
         <v>8405.9351999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D12">
+        <v>1.6680200000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>295</v>
       </c>
@@ -592,8 +621,11 @@
         <f t="shared" si="0"/>
         <v>8551.0748999999996</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D13">
+        <v>1.6851499999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>298</v>
       </c>
@@ -604,8 +636,11 @@
         <f t="shared" si="0"/>
         <v>8638.2746000000006</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D14">
+        <v>1.6952499999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>300</v>
       </c>
@@ -616,8 +651,11 @@
         <f t="shared" si="0"/>
         <v>8696.5042999999987</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D15">
+        <v>1.7020299999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>305</v>
       </c>
@@ -628,8 +666,11 @@
         <f t="shared" si="0"/>
         <v>8842.2234000000008</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D16">
+        <v>1.71865</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>310</v>
       </c>
@@ -640,8 +681,11 @@
         <f t="shared" si="0"/>
         <v>8987.6527999999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D17">
+        <v>1.73498</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>315</v>
       </c>
@@ -652,8 +696,11 @@
         <f t="shared" si="0"/>
         <v>9133.3718999999983</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D18">
+        <v>1.7510600000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>320</v>
       </c>
@@ -664,8 +711,11 @@
         <f t="shared" si="0"/>
         <v>9278.801300000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D19">
+        <v>1.7668999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>325</v>
       </c>
@@ -676,8 +726,11 @@
         <f t="shared" si="0"/>
         <v>9424.2307000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D20">
+        <v>1.7824899999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>330</v>
       </c>
@@ -688,8 +741,11 @@
         <f t="shared" si="0"/>
         <v>9569.9497999999985</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D21">
+        <v>1.79783</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>340</v>
       </c>
@@ -700,8 +756,11 @@
         <f t="shared" si="0"/>
         <v>9861.9673999999995</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D22">
+        <v>1.8279000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>350</v>
       </c>
@@ -712,8 +771,11 @@
         <f t="shared" si="0"/>
         <v>10153.695299999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D23">
+        <v>1.8570800000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>360</v>
       </c>
@@ -724,8 +786,11 @@
         <f t="shared" si="0"/>
         <v>10446.0026</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D24">
+        <v>1.8854299999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>370</v>
       </c>
@@ -736,8 +801,11 @@
         <f t="shared" si="0"/>
         <v>10738.3099</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D25">
+        <v>1.91313</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>380</v>
       </c>
@@ -748,8 +816,11 @@
         <f t="shared" si="0"/>
         <v>11030.906899999998</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D26">
+        <v>1.94001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>390</v>
       </c>
@@ -760,8 +831,11 @@
         <f t="shared" si="0"/>
         <v>11323.793599999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D27">
+        <v>1.9663299999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>400</v>
       </c>
@@ -772,8 +846,11 @@
         <f t="shared" si="0"/>
         <v>11616.390600000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D28">
+        <v>1.99194</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>410</v>
       </c>
@@ -784,8 +861,11 @@
         <f t="shared" si="0"/>
         <v>11910.1464</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D29">
+        <v>2.0169899999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>420</v>
       </c>
@@ -796,8 +876,11 @@
         <f t="shared" si="0"/>
         <v>12203.902199999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D30">
+        <v>2.04142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>430</v>
       </c>
@@ -808,8 +891,11 @@
         <f t="shared" si="0"/>
         <v>12498.527099999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D31">
+        <v>2.0653299999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>440</v>
       </c>
@@ -820,8 +906,11 @@
         <f t="shared" si="0"/>
         <v>12793.441699999999</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D32">
+        <v>2.0886999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>450</v>
       </c>
@@ -832,8 +921,11 @@
         <f t="shared" si="0"/>
         <v>13088.646000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D33">
+        <v>2.1116100000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>460</v>
       </c>
@@ -844,8 +936,11 @@
         <f t="shared" si="0"/>
         <v>13384.719399999998</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D34">
+        <v>2.1340699999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>470</v>
       </c>
@@ -856,8 +951,11 @@
         <f t="shared" si="0"/>
         <v>13680.792799999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D35">
+        <v>2.15604</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>480</v>
       </c>
@@ -868,8 +966,11 @@
         <f t="shared" si="0"/>
         <v>13977.7353</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D36">
+        <v>2.1776</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>490</v>
       </c>
@@ -880,8 +981,11 @@
         <f t="shared" si="0"/>
         <v>14274.677799999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D37">
+        <v>2.19876</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>500</v>
       </c>
@@ -892,8 +996,11 @@
         <f t="shared" si="0"/>
         <v>14572.489399999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D38">
+        <v>2.2195200000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>510</v>
       </c>
@@ -904,8 +1011,11 @@
         <f t="shared" si="0"/>
         <v>14870.8804</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D39">
+        <v>2.2399300000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>520</v>
       </c>
@@ -916,8 +1026,11 @@
         <f t="shared" si="0"/>
         <v>15169.561099999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D40">
+        <v>2.25997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>530</v>
       </c>
@@ -928,8 +1041,11 @@
         <f t="shared" si="0"/>
         <v>15469.400599999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D41">
+        <v>2.2796699999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>540</v>
       </c>
@@ -940,8 +1056,11 @@
         <f t="shared" si="0"/>
         <v>15769.8195</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D42">
+        <v>2.2990599999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>550</v>
       </c>
@@ -952,8 +1071,11 @@
         <f t="shared" si="0"/>
         <v>16099.7878</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D43">
+        <v>2.3180900000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>560</v>
       </c>
@@ -964,8 +1086,11 @@
         <f t="shared" si="0"/>
         <v>16372.974899999997</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D44">
+        <v>2.3368500000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>570</v>
       </c>
@@ -976,8 +1101,11 @@
         <f t="shared" si="0"/>
         <v>16674.8423</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D45">
+        <v>2.3553099999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>580</v>
       </c>
@@ -988,8 +1116,11 @@
         <f t="shared" si="0"/>
         <v>16977.578799999999</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D46">
+        <v>2.3734799999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>590</v>
       </c>
@@ -1000,8 +1131,11 @@
         <f t="shared" si="0"/>
         <v>17281.184399999998</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D47">
+        <v>2.3914</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>600</v>
       </c>
@@ -1012,8 +1146,11 @@
         <f t="shared" si="0"/>
         <v>17585.3694</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D48">
+        <v>2.4090199999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>610</v>
       </c>
@@ -1024,8 +1161,11 @@
         <f t="shared" si="0"/>
         <v>17889.844099999998</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D49">
+        <v>2.4264399999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>620</v>
       </c>
@@ -1036,8 +1176,11 @@
         <f t="shared" si="0"/>
         <v>18195.187900000001</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D50">
+        <v>2.4435600000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>630</v>
       </c>
@@ -1048,8 +1191,11 @@
         <f t="shared" si="0"/>
         <v>18501.111099999998</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D51">
+        <v>2.46048</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>640</v>
       </c>
@@ -1060,8 +1206,11 @@
         <f t="shared" si="0"/>
         <v>18807.903399999999</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D52">
+        <v>2.47716</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>650</v>
       </c>
@@ -1072,8 +1221,11 @@
         <f t="shared" si="0"/>
         <v>19115.5648</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D53">
+        <v>2.4936400000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>660</v>
       </c>
@@ -1084,8 +1236,11 @@
         <f t="shared" si="0"/>
         <v>19423.515899999999</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D54">
+        <v>2.5098500000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>670</v>
       </c>
@@ -1096,8 +1251,11 @@
         <f t="shared" si="0"/>
         <v>19732.625799999998</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D55">
+        <v>2.52589</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>680</v>
       </c>
@@ -1108,8 +1266,11 @@
         <f t="shared" si="0"/>
         <v>20042.025400000002</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D56">
+        <v>2.54175</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>690</v>
       </c>
@@ -1120,8 +1281,11 @@
         <f t="shared" si="0"/>
         <v>20352.004399999998</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D57">
+        <v>2.5573100000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>700</v>
       </c>
@@ -1132,8 +1296,11 @@
         <f t="shared" si="0"/>
         <v>20663.4319</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D58">
+        <v>2.5727699999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>710</v>
       </c>
@@ -1144,8 +1311,11 @@
         <f t="shared" si="0"/>
         <v>20975.4388</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D59">
+        <v>2.5880999999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>720</v>
       </c>
@@ -1156,8 +1326,11 @@
         <f t="shared" si="0"/>
         <v>21287.735400000001</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D60">
+        <v>2.6031900000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>730</v>
       </c>
@@ -1168,8 +1341,11 @@
         <f t="shared" si="0"/>
         <v>21600.611399999998</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D61">
+        <v>2.6180300000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>740</v>
       </c>
@@ -1180,8 +1356,11 @@
         <f t="shared" si="0"/>
         <v>21914.066800000001</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D62">
+        <v>2.6328</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>750</v>
       </c>
@@ -1192,8 +1371,11 @@
         <f t="shared" si="0"/>
         <v>22228.391299999999</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D63">
+        <v>2.64737</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>760</v>
       </c>
@@ -1204,8 +1386,11 @@
         <f t="shared" si="0"/>
         <v>22543.874599999999</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D64">
+        <v>2.6617600000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>780</v>
       </c>
@@ -1216,8 +1401,11 @@
         <f t="shared" si="0"/>
         <v>23176.8691</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D65">
+        <v>2.6901299999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>800</v>
       </c>
@@ -1228,8 +1416,11 @@
         <f t="shared" si="0"/>
         <v>23811.891500000002</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D66">
+        <v>2.71787</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>820</v>
       </c>
@@ -1240,8 +1431,11 @@
         <f t="shared" ref="C67:C122" si="1">B67*28.97</f>
         <v>24450.100599999998</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D67">
+        <v>2.7450399999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>840</v>
       </c>
@@ -1252,8 +1446,11 @@
         <f t="shared" si="1"/>
         <v>25090.337599999999</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D68">
+        <v>2.7717000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>860</v>
       </c>
@@ -1264,8 +1461,11 @@
         <f t="shared" si="1"/>
         <v>25733.1819</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D69">
+        <v>2.7978299999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>880</v>
       </c>
@@ -1276,8 +1476,11 @@
         <f t="shared" si="1"/>
         <v>26378.923199999997</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D70">
+        <v>2.8234400000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>900</v>
       </c>
@@ -1288,8 +1491,11 @@
         <f t="shared" si="1"/>
         <v>27026.982099999997</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D71">
+        <v>2.84856</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>920</v>
       </c>
@@ -1300,8 +1506,11 @@
         <f t="shared" si="1"/>
         <v>27677.3586</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D72">
+        <v>2.87324</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>940</v>
       </c>
@@ -1312,8 +1521,11 @@
         <f t="shared" si="1"/>
         <v>28330.342399999998</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D73">
+        <v>2.8974799999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>960</v>
       </c>
@@ -1324,8 +1536,11 @@
         <f t="shared" si="1"/>
         <v>28985.933499999999</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D74">
+        <v>2.9212799999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>980</v>
       </c>
@@ -1336,8 +1551,11 @@
         <f t="shared" si="1"/>
         <v>29643.552499999998</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D75">
+        <v>2.94468</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>1000</v>
       </c>
@@ -1348,8 +1566,11 @@
         <f t="shared" si="1"/>
         <v>30303.778799999996</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D76">
+        <v>2.9676999999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>1020</v>
       </c>
@@ -1360,8 +1581,11 @@
         <f t="shared" si="1"/>
         <v>30965.743300000002</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D77">
+        <v>2.9903400000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>1040</v>
       </c>
@@ -1372,8 +1596,11 @@
         <f t="shared" si="1"/>
         <v>31630.894499999995</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D78">
+        <v>3.0125999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>1060</v>
       </c>
@@ -1384,8 +1611,11 @@
         <f t="shared" si="1"/>
         <v>32297.494199999997</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D79">
+        <v>3.0344899999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>1080</v>
       </c>
@@ -1396,8 +1626,11 @@
         <f t="shared" si="1"/>
         <v>32964.673300000002</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D80">
+        <v>3.0560800000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>1100</v>
       </c>
@@ -1408,8 +1641,11 @@
         <f t="shared" si="1"/>
         <v>33636.197899999999</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D81">
+        <v>3.0773199999999998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>1120</v>
       </c>
@@ -1420,8 +1656,11 @@
         <f t="shared" si="1"/>
         <v>34308.5916</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D82">
+        <v>3.0982500000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>1140</v>
       </c>
@@ -1432,8 +1671,11 @@
         <f t="shared" si="1"/>
         <v>34983.302899999995</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D83">
+        <v>3.11883</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>1160</v>
       </c>
@@ -1444,8 +1686,11 @@
         <f t="shared" si="1"/>
         <v>35659.752399999998</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D84">
+        <v>3.13916</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>1180</v>
       </c>
@@ -1456,8 +1701,11 @@
         <f t="shared" si="1"/>
         <v>36338.229799999994</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D85">
+        <v>3.15916</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>1200</v>
       </c>
@@ -1468,8 +1716,11 @@
         <f t="shared" si="1"/>
         <v>37017.576300000001</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D86">
+        <v>3.1788799999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>1220</v>
       </c>
@@ -1480,8 +1731,11 @@
         <f t="shared" si="1"/>
         <v>37698.950699999994</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D87">
+        <v>3.19834</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>1240</v>
       </c>
@@ -1492,8 +1746,11 @@
         <f t="shared" si="1"/>
         <v>38383.222099999999</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D88">
+        <v>3.2175099999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>1260</v>
       </c>
@@ -1504,8 +1761,11 @@
         <f t="shared" si="1"/>
         <v>39067.493499999997</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D89">
+        <v>3.23638</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>1280</v>
       </c>
@@ -1516,8 +1776,11 @@
         <f t="shared" si="1"/>
         <v>39753.792799999996</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D90">
+        <v>3.2551000000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>1300</v>
       </c>
@@ -1528,8 +1791,11 @@
         <f t="shared" si="1"/>
         <v>40441.250899999999</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D91">
+        <v>3.27345</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>1320</v>
       </c>
@@ -1540,8 +1806,11 @@
         <f t="shared" si="1"/>
         <v>41130.447199999995</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D92">
+        <v>3.2915999999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>1340</v>
       </c>
@@ -1552,8 +1821,11 @@
         <f t="shared" si="1"/>
         <v>41821.091999999997</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D93">
+        <v>3.30959</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>1360</v>
       </c>
@@ -1564,8 +1836,11 @@
         <f t="shared" si="1"/>
         <v>42513.185299999997</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D94">
+        <v>3.3272400000000002</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>1380</v>
       </c>
@@ -1576,8 +1851,11 @@
         <f t="shared" si="1"/>
         <v>43207.016799999998</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D95">
+        <v>3.3447399999999998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>1400</v>
       </c>
@@ -1588,8 +1866,11 @@
         <f t="shared" si="1"/>
         <v>43901.717400000001</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D96">
+        <v>3.3620000000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>1420</v>
       </c>
@@ -1600,8 +1881,11 @@
         <f t="shared" si="1"/>
         <v>44597.576800000003</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D97">
+        <v>3.3790100000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>1440</v>
       </c>
@@ -1612,8 +1896,11 @@
         <f t="shared" si="1"/>
         <v>45294.884699999995</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D98">
+        <v>3.3958599999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>1460</v>
       </c>
@@ -1624,8 +1911,11 @@
         <f t="shared" si="1"/>
         <v>45993.641100000001</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D99">
+        <v>3.4124699999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>1480</v>
       </c>
@@ -1636,8 +1926,11 @@
         <f t="shared" si="1"/>
         <v>46693.556299999997</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D100">
+        <v>3.4289200000000002</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>1500</v>
       </c>
@@ -1648,8 +1941,11 @@
         <f t="shared" si="1"/>
         <v>47394.050900000002</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D101">
+        <v>3.44516</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>1520</v>
       </c>
@@ -1660,8 +1956,11 @@
         <f t="shared" si="1"/>
         <v>48096.863099999995</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D102">
+        <v>3.4611999999999998</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>1540</v>
       </c>
@@ -1672,8 +1971,11 @@
         <f t="shared" si="1"/>
         <v>48800.254699999998</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D103">
+        <v>3.4771200000000002</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>1560</v>
       </c>
@@ -1684,8 +1986,11 @@
         <f t="shared" si="1"/>
         <v>49504.515399999997</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D104">
+        <v>3.4927600000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>1580</v>
       </c>
@@ -1696,8 +2001,11 @@
         <f t="shared" si="1"/>
         <v>50209.9349</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D105">
+        <v>3.5082599999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>1600</v>
       </c>
@@ -1708,8 +2016,11 @@
         <f t="shared" si="1"/>
         <v>50916.802899999995</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D106">
+        <v>3.5236399999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>1620</v>
       </c>
@@ -1720,8 +2031,11 @@
         <f t="shared" si="1"/>
         <v>51624.54</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D107">
+        <v>3.5387900000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>1640</v>
       </c>
@@ -1732,8 +2046,11 @@
         <f t="shared" si="1"/>
         <v>52333.146199999996</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D108">
+        <v>3.5538099999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>1660</v>
       </c>
@@ -1744,8 +2061,11 @@
         <f t="shared" si="1"/>
         <v>53042.911200000002</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D109">
+        <v>3.56867</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>1680</v>
       </c>
@@ -1756,8 +2076,11 @@
         <f t="shared" si="1"/>
         <v>53753.834999999999</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D110">
+        <v>3.5833499999999998</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>1700</v>
       </c>
@@ -1768,8 +2091,11 @@
         <f t="shared" si="1"/>
         <v>54466.496999999996</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D111">
+        <v>3.5979000000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>1750</v>
       </c>
@@ -1780,8 +2106,11 @@
         <f t="shared" si="1"/>
         <v>56248.151999999995</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D112">
+        <v>3.6335999999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>1800</v>
       </c>
@@ -1792,8 +2121,11 @@
         <f t="shared" si="1"/>
         <v>58035.600999999995</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D113">
+        <v>3.6684000000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>1850</v>
       </c>
@@ -1804,8 +2136,11 @@
         <f t="shared" si="1"/>
         <v>59831.741000000002</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D114">
+        <v>3.7023000000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>1900</v>
       </c>
@@ -1816,8 +2151,11 @@
         <f t="shared" si="1"/>
         <v>61630.777999999998</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D115">
+        <v>3.7353999999999998</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>1950</v>
       </c>
@@ -1828,8 +2166,11 @@
         <f t="shared" si="1"/>
         <v>63435.608999999989</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D116">
+        <v>3.7677</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>2000</v>
       </c>
@@ -1840,8 +2181,11 @@
         <f t="shared" si="1"/>
         <v>65243.336999999992</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D117">
+        <v>3.7993999999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>2050</v>
       </c>
@@ -1852,8 +2196,11 @@
         <f t="shared" si="1"/>
         <v>67053.962</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D118">
+        <v>3.8302999999999998</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>2100</v>
       </c>
@@ -1864,8 +2211,11 @@
         <f t="shared" si="1"/>
         <v>68881.968999999997</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D119">
+        <v>3.8605</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>2150</v>
       </c>
@@ -1876,8 +2226,11 @@
         <f t="shared" si="1"/>
         <v>70695.491000000009</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D120">
+        <v>3.8900999999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>2200</v>
       </c>
@@ -1888,8 +2241,11 @@
         <f t="shared" si="1"/>
         <v>72517.703999999998</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D121">
+        <v>3.9190999999999998</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>2250</v>
       </c>
@@ -1899,6 +2255,9 @@
       <c r="C122">
         <f t="shared" si="1"/>
         <v>74348.607999999993</v>
+      </c>
+      <c r="D122">
+        <v>3.9474</v>
       </c>
     </row>
   </sheetData>
@@ -1909,7 +2268,7 @@
     <cfRule type="duplicateValues" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>

--- a/Properties of Air.xlsx
+++ b/Properties of Air.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6ad723a0bd63bbe4/School/UW Bothell/2020-2021/Capstone/Microturbine Git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{84E95AB5-4D76-462A-B2B4-7DEF6CD8F29B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BABB405F-0210-4091-8D36-E2E639F2974E}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{84E95AB5-4D76-462A-B2B4-7DEF6CD8F29B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{72A10FC1-436C-4B6A-B2CA-CDAF8514271E}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{52DAC4DC-AF21-4D5E-A4BE-D87048A6DFFC}"/>
+    <workbookView xWindow="44880" yWindow="-3795" windowWidth="29040" windowHeight="15840" xr2:uid="{52DAC4DC-AF21-4D5E-A4BE-D87048A6DFFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Temp_K</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>S_deg_kJ_kgK</t>
+  </si>
+  <si>
+    <t>Pr</t>
   </si>
 </sst>
 </file>
@@ -418,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2E4A01-40C1-457E-9F55-7B0AF2CECAF0}">
-  <dimension ref="A1:D122"/>
+  <dimension ref="A1:E122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -429,9 +432,10 @@
     <col min="1" max="1" width="14.53125" customWidth="1"/>
     <col min="2" max="2" width="16.9296875" customWidth="1"/>
     <col min="3" max="3" width="21.19921875" customWidth="1"/>
+    <col min="4" max="4" width="20.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -444,8 +448,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>200</v>
       </c>
@@ -459,8 +466,11 @@
       <c r="D2">
         <v>1.29559</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E2">
+        <v>0.33629999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>210</v>
       </c>
@@ -474,8 +484,11 @@
       <c r="D3">
         <v>1.3444400000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E3">
+        <v>0.3987</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>220</v>
       </c>
@@ -489,8 +502,11 @@
       <c r="D4">
         <v>1.3910499999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E4">
+        <v>0.46899999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>230</v>
       </c>
@@ -504,8 +520,11 @@
       <c r="D5">
         <v>1.43557</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E5">
+        <v>0.54769999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>240</v>
       </c>
@@ -519,8 +538,11 @@
       <c r="D6">
         <v>1.47824</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E6">
+        <v>0.63549999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>250</v>
       </c>
@@ -534,8 +556,11 @@
       <c r="D7">
         <v>1.5191699999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E7">
+        <v>0.7329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>260</v>
       </c>
@@ -549,8 +574,11 @@
       <c r="D8">
         <v>1.5584800000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E8">
+        <v>0.84050000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>270</v>
       </c>
@@ -564,8 +592,11 @@
       <c r="D9">
         <v>1.5963400000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E9">
+        <v>0.95899999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>280</v>
       </c>
@@ -579,8 +610,11 @@
       <c r="D10">
         <v>1.63279</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E10">
+        <v>1.0889</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>285</v>
       </c>
@@ -594,8 +628,11 @@
       <c r="D11">
         <v>1.65055</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E11">
+        <v>1.1584000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>290</v>
       </c>
@@ -609,8 +646,11 @@
       <c r="D12">
         <v>1.6680200000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E12">
+        <v>1.2311000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>295</v>
       </c>
@@ -624,8 +664,11 @@
       <c r="D13">
         <v>1.6851499999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E13">
+        <v>1.3068</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>298</v>
       </c>
@@ -639,8 +682,11 @@
       <c r="D14">
         <v>1.6952499999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E14">
+        <v>1.3543000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>300</v>
       </c>
@@ -654,8 +700,11 @@
       <c r="D15">
         <v>1.7020299999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E15">
+        <v>1.3859999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>305</v>
       </c>
@@ -669,8 +718,11 @@
       <c r="D16">
         <v>1.71865</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E16">
+        <v>1.4685999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>310</v>
       </c>
@@ -684,8 +736,11 @@
       <c r="D17">
         <v>1.73498</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E17">
+        <v>1.5546</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>315</v>
       </c>
@@ -699,8 +754,11 @@
       <c r="D18">
         <v>1.7510600000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E18">
+        <v>1.6442000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>320</v>
       </c>
@@ -714,8 +772,11 @@
       <c r="D19">
         <v>1.7668999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E19">
+        <v>1.7375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>325</v>
       </c>
@@ -729,8 +790,11 @@
       <c r="D20">
         <v>1.7824899999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E20">
+        <v>1.8345</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>330</v>
       </c>
@@ -744,8 +808,11 @@
       <c r="D21">
         <v>1.79783</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E21">
+        <v>1.9352</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>340</v>
       </c>
@@ -759,8 +826,11 @@
       <c r="D22">
         <v>1.8279000000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E22">
+        <v>2.149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>350</v>
       </c>
@@ -774,8 +844,11 @@
       <c r="D23">
         <v>1.8570800000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E23">
+        <v>2.379</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>360</v>
       </c>
@@ -789,8 +862,11 @@
       <c r="D24">
         <v>1.8854299999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E24">
+        <v>2.6259999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>370</v>
       </c>
@@ -804,8 +880,11 @@
       <c r="D25">
         <v>1.91313</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E25">
+        <v>2.8919999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>380</v>
       </c>
@@ -819,8 +898,11 @@
       <c r="D26">
         <v>1.94001</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E26">
+        <v>3.1760000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>390</v>
       </c>
@@ -834,8 +916,11 @@
       <c r="D27">
         <v>1.9663299999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E27">
+        <v>3.4809999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>400</v>
       </c>
@@ -849,8 +934,11 @@
       <c r="D28">
         <v>1.99194</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E28">
+        <v>3.806</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>410</v>
       </c>
@@ -864,8 +952,11 @@
       <c r="D29">
         <v>2.0169899999999998</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E29">
+        <v>4.1529999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>420</v>
       </c>
@@ -879,8 +970,11 @@
       <c r="D30">
         <v>2.04142</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E30">
+        <v>4.5220000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>430</v>
       </c>
@@ -894,8 +988,11 @@
       <c r="D31">
         <v>2.0653299999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E31">
+        <v>4.915</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>440</v>
       </c>
@@ -909,8 +1006,11 @@
       <c r="D32">
         <v>2.0886999999999998</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E32">
+        <v>5.3319999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>450</v>
       </c>
@@ -924,8 +1024,11 @@
       <c r="D33">
         <v>2.1116100000000002</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E33">
+        <v>5.7750000000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>460</v>
       </c>
@@ -939,8 +1042,11 @@
       <c r="D34">
         <v>2.1340699999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E34">
+        <v>6.2450000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>470</v>
       </c>
@@ -954,8 +1060,11 @@
       <c r="D35">
         <v>2.15604</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E35">
+        <v>6.742</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>480</v>
       </c>
@@ -969,8 +1078,11 @@
       <c r="D36">
         <v>2.1776</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E36">
+        <v>7.2679999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>490</v>
       </c>
@@ -984,8 +1096,11 @@
       <c r="D37">
         <v>2.19876</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E37">
+        <v>7.8239999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>500</v>
       </c>
@@ -999,8 +1114,11 @@
       <c r="D38">
         <v>2.2195200000000002</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E38">
+        <v>8.4109999999999996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>510</v>
       </c>
@@ -1014,8 +1132,11 @@
       <c r="D39">
         <v>2.2399300000000002</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E39">
+        <v>9.0310000000000006</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>520</v>
       </c>
@@ -1029,8 +1150,11 @@
       <c r="D40">
         <v>2.25997</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E40">
+        <v>9.6839999999999993</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>530</v>
       </c>
@@ -1044,8 +1168,11 @@
       <c r="D41">
         <v>2.2796699999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E41">
+        <v>10.37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>540</v>
       </c>
@@ -1059,8 +1186,11 @@
       <c r="D42">
         <v>2.2990599999999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E42">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>550</v>
       </c>
@@ -1074,8 +1204,11 @@
       <c r="D43">
         <v>2.3180900000000002</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E43">
+        <v>11.86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>560</v>
       </c>
@@ -1089,8 +1222,11 @@
       <c r="D44">
         <v>2.3368500000000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E44">
+        <v>12.66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>570</v>
       </c>
@@ -1104,8 +1240,11 @@
       <c r="D45">
         <v>2.3553099999999998</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E45">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>580</v>
       </c>
@@ -1119,8 +1258,11 @@
       <c r="D46">
         <v>2.3734799999999998</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E46">
+        <v>14.38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>590</v>
       </c>
@@ -1134,8 +1276,11 @@
       <c r="D47">
         <v>2.3914</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E47">
+        <v>15.31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>600</v>
       </c>
@@ -1149,8 +1294,11 @@
       <c r="D48">
         <v>2.4090199999999999</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E48">
+        <v>16.29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>610</v>
       </c>
@@ -1164,8 +1312,11 @@
       <c r="D49">
         <v>2.4264399999999999</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E49">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>620</v>
       </c>
@@ -1179,8 +1330,11 @@
       <c r="D50">
         <v>2.4435600000000002</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E50">
+        <v>18.36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>630</v>
       </c>
@@ -1194,8 +1348,11 @@
       <c r="D51">
         <v>2.46048</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E51">
+        <v>19.84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>640</v>
       </c>
@@ -1209,8 +1366,11 @@
       <c r="D52">
         <v>2.47716</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E52">
+        <v>20.64</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>650</v>
       </c>
@@ -1224,8 +1384,11 @@
       <c r="D53">
         <v>2.4936400000000001</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E53">
+        <v>21.86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>660</v>
       </c>
@@ -1239,8 +1402,11 @@
       <c r="D54">
         <v>2.5098500000000001</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E54">
+        <v>23.13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>670</v>
       </c>
@@ -1254,8 +1420,11 @@
       <c r="D55">
         <v>2.52589</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E55">
+        <v>24.46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>680</v>
       </c>
@@ -1269,8 +1438,11 @@
       <c r="D56">
         <v>2.54175</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E56">
+        <v>25.85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>690</v>
       </c>
@@ -1284,8 +1456,11 @@
       <c r="D57">
         <v>2.5573100000000002</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E57">
+        <v>27.29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>700</v>
       </c>
@@ -1299,8 +1474,11 @@
       <c r="D58">
         <v>2.5727699999999998</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E58">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>710</v>
       </c>
@@ -1314,8 +1492,11 @@
       <c r="D59">
         <v>2.5880999999999998</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E59">
+        <v>30.38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>720</v>
       </c>
@@ -1329,8 +1510,11 @@
       <c r="D60">
         <v>2.6031900000000001</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E60">
+        <v>32.020000000000003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>730</v>
       </c>
@@ -1344,8 +1528,11 @@
       <c r="D61">
         <v>2.6180300000000001</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E61">
+        <v>33.72</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>740</v>
       </c>
@@ -1359,8 +1546,11 @@
       <c r="D62">
         <v>2.6328</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E62">
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>750</v>
       </c>
@@ -1374,8 +1564,11 @@
       <c r="D63">
         <v>2.64737</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E63">
+        <v>37.35</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>760</v>
       </c>
@@ -1389,8 +1582,11 @@
       <c r="D64">
         <v>2.6617600000000001</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E64">
+        <v>39.270000000000003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>780</v>
       </c>
@@ -1404,8 +1600,11 @@
       <c r="D65">
         <v>2.6901299999999999</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E65">
+        <v>43.35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>800</v>
       </c>
@@ -1419,8 +1618,11 @@
       <c r="D66">
         <v>2.71787</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E66">
+        <v>47.75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>820</v>
       </c>
@@ -1434,8 +1636,11 @@
       <c r="D67">
         <v>2.7450399999999999</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E67">
+        <v>52.59</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>840</v>
       </c>
@@ -1449,8 +1654,11 @@
       <c r="D68">
         <v>2.7717000000000001</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E68">
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>860</v>
       </c>
@@ -1464,8 +1672,11 @@
       <c r="D69">
         <v>2.7978299999999998</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E69">
+        <v>63.09</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>880</v>
       </c>
@@ -1479,8 +1690,11 @@
       <c r="D70">
         <v>2.8234400000000002</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E70">
+        <v>68.98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>900</v>
       </c>
@@ -1494,8 +1708,11 @@
       <c r="D71">
         <v>2.84856</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E71">
+        <v>75.290000000000006</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>920</v>
       </c>
@@ -1509,8 +1726,11 @@
       <c r="D72">
         <v>2.87324</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E72">
+        <v>82.05</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>940</v>
       </c>
@@ -1524,8 +1744,11 @@
       <c r="D73">
         <v>2.8974799999999998</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E73">
+        <v>89.28</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>960</v>
       </c>
@@ -1539,8 +1762,11 @@
       <c r="D74">
         <v>2.9212799999999999</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E74">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>980</v>
       </c>
@@ -1554,8 +1780,11 @@
       <c r="D75">
         <v>2.94468</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E75">
+        <v>105.2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>1000</v>
       </c>
@@ -1569,8 +1798,11 @@
       <c r="D76">
         <v>2.9676999999999998</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E76">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>1020</v>
       </c>
@@ -1584,8 +1816,11 @@
       <c r="D77">
         <v>2.9903400000000002</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E77">
+        <v>123.4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>1040</v>
       </c>
@@ -1599,8 +1834,11 @@
       <c r="D78">
         <v>3.0125999999999999</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E78">
+        <v>133.30000000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>1060</v>
       </c>
@@ -1614,8 +1852,11 @@
       <c r="D79">
         <v>3.0344899999999999</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E79">
+        <v>143.9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>1080</v>
       </c>
@@ -1629,8 +1870,11 @@
       <c r="D80">
         <v>3.0560800000000001</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E80">
+        <v>155.19999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>1100</v>
       </c>
@@ -1644,8 +1888,11 @@
       <c r="D81">
         <v>3.0773199999999998</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E81">
+        <v>167.1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>1120</v>
       </c>
@@ -1659,8 +1906,11 @@
       <c r="D82">
         <v>3.0982500000000002</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E82">
+        <v>179.7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>1140</v>
       </c>
@@ -1674,8 +1924,11 @@
       <c r="D83">
         <v>3.11883</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E83">
+        <v>193.1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>1160</v>
       </c>
@@ -1689,8 +1942,11 @@
       <c r="D84">
         <v>3.13916</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E84">
+        <v>207.2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>1180</v>
       </c>
@@ -1704,8 +1960,11 @@
       <c r="D85">
         <v>3.15916</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E85">
+        <v>222.2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>1200</v>
       </c>
@@ -1719,8 +1978,11 @@
       <c r="D86">
         <v>3.1788799999999999</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E86">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>1220</v>
       </c>
@@ -1734,8 +1996,11 @@
       <c r="D87">
         <v>3.19834</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E87">
+        <v>254.7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>1240</v>
       </c>
@@ -1749,8 +2014,11 @@
       <c r="D88">
         <v>3.2175099999999999</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E88">
+        <v>272.3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>1260</v>
       </c>
@@ -1764,8 +2032,11 @@
       <c r="D89">
         <v>3.23638</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E89">
+        <v>290.8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>1280</v>
       </c>
@@ -1779,8 +2050,11 @@
       <c r="D90">
         <v>3.2551000000000001</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E90">
+        <v>310.39999999999998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>1300</v>
       </c>
@@ -1794,8 +2068,11 @@
       <c r="D91">
         <v>3.27345</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E91">
+        <v>330.9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>1320</v>
       </c>
@@ -1809,8 +2086,11 @@
       <c r="D92">
         <v>3.2915999999999999</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E92">
+        <v>352.5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>1340</v>
       </c>
@@ -1824,8 +2104,11 @@
       <c r="D93">
         <v>3.30959</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E93">
+        <v>375.3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>1360</v>
       </c>
@@ -1839,8 +2122,11 @@
       <c r="D94">
         <v>3.3272400000000002</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E94">
+        <v>399.1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>1380</v>
       </c>
@@ -1854,8 +2140,11 @@
       <c r="D95">
         <v>3.3447399999999998</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E95">
+        <v>424.2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>1400</v>
       </c>
@@ -1869,8 +2158,11 @@
       <c r="D96">
         <v>3.3620000000000001</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E96">
+        <v>450.5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>1420</v>
       </c>
@@ -1884,8 +2176,11 @@
       <c r="D97">
         <v>3.3790100000000001</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E97">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>1440</v>
       </c>
@@ -1899,8 +2194,11 @@
       <c r="D98">
         <v>3.3958599999999999</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E98">
+        <v>506.9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>1460</v>
       </c>
@@ -1914,8 +2212,11 @@
       <c r="D99">
         <v>3.4124699999999999</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E99">
+        <v>537.1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>1480</v>
       </c>
@@ -1929,8 +2230,11 @@
       <c r="D100">
         <v>3.4289200000000002</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E100">
+        <v>568.79999999999995</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>1500</v>
       </c>
@@ -1944,8 +2248,11 @@
       <c r="D101">
         <v>3.44516</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E101">
+        <v>601.9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>1520</v>
       </c>
@@ -1959,8 +2266,11 @@
       <c r="D102">
         <v>3.4611999999999998</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E102">
+        <v>636.5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>1540</v>
       </c>
@@ -1974,8 +2284,11 @@
       <c r="D103">
         <v>3.4771200000000002</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E103">
+        <v>672.8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>1560</v>
       </c>
@@ -1989,8 +2302,11 @@
       <c r="D104">
         <v>3.4927600000000001</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E104">
+        <v>710.5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>1580</v>
       </c>
@@ -2004,8 +2320,11 @@
       <c r="D105">
         <v>3.5082599999999999</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E105">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>1600</v>
       </c>
@@ -2019,8 +2338,11 @@
       <c r="D106">
         <v>3.5236399999999999</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E106">
+        <v>791.2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>1620</v>
       </c>
@@ -2034,8 +2356,11 @@
       <c r="D107">
         <v>3.5387900000000001</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E107">
+        <v>834.1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>1640</v>
       </c>
@@ -2049,8 +2374,11 @@
       <c r="D108">
         <v>3.5538099999999999</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E108">
+        <v>878.9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>1660</v>
       </c>
@@ -2064,8 +2392,11 @@
       <c r="D109">
         <v>3.56867</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E109">
+        <v>925.6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>1680</v>
       </c>
@@ -2079,8 +2410,11 @@
       <c r="D110">
         <v>3.5833499999999998</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E110">
+        <v>974.2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>1700</v>
       </c>
@@ -2094,8 +2428,11 @@
       <c r="D111">
         <v>3.5979000000000001</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E111">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>1750</v>
       </c>
@@ -2109,8 +2446,11 @@
       <c r="D112">
         <v>3.6335999999999999</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E112">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>1800</v>
       </c>
@@ -2124,8 +2464,11 @@
       <c r="D113">
         <v>3.6684000000000001</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E113">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>1850</v>
       </c>
@@ -2139,8 +2482,11 @@
       <c r="D114">
         <v>3.7023000000000001</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E114">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>1900</v>
       </c>
@@ -2154,8 +2500,11 @@
       <c r="D115">
         <v>3.7353999999999998</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E115">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>1950</v>
       </c>
@@ -2169,8 +2518,11 @@
       <c r="D116">
         <v>3.7677</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E116">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>2000</v>
       </c>
@@ -2184,8 +2536,11 @@
       <c r="D117">
         <v>3.7993999999999999</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E117">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>2050</v>
       </c>
@@ -2199,8 +2554,11 @@
       <c r="D118">
         <v>3.8302999999999998</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E118">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>2100</v>
       </c>
@@ -2214,8 +2572,11 @@
       <c r="D119">
         <v>3.8605</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E119">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>2150</v>
       </c>
@@ -2229,8 +2590,11 @@
       <c r="D120">
         <v>3.8900999999999999</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E120">
+        <v>2837</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>2200</v>
       </c>
@@ -2244,8 +2608,11 @@
       <c r="D121">
         <v>3.9190999999999998</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E121">
+        <v>3138</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>2250</v>
       </c>
@@ -2258,6 +2625,9 @@
       </c>
       <c r="D122">
         <v>3.9474</v>
+      </c>
+      <c r="E122">
+        <v>3464</v>
       </c>
     </row>
   </sheetData>
